--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46972.2881038794</v>
+        <v>45084.70658747733</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13106959.94437522</v>
+        <v>13106959.94437523</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>121.4159166785327</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>157.0764710892155</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>269.8854510154501</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>82.12149514678609</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>49.07921205018573</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>118.0124042205641</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6910260201687</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>332.0062517184479</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>220.9066963904436</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.9193234575013</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>62.55231724873066</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>108.6493083062498</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>68.30958557480342</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>64.63350838933421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>133.9612206606979</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>145.6925184226046</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>140.6576723276422</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>90.45344662162471</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>119.1040463651495</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.0313591381444</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>6.924765229693141</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896551</v>
+        <v>93.41221638965517</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801192</v>
+        <v>91.23070601801199</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437399</v>
+        <v>90.21779139437406</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897887</v>
+        <v>93.71057173897894</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571473</v>
+        <v>55.21598883571481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>122.4987080593322</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>148.3582706711199</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857257</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1364.743608328862</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="C2" t="n">
-        <v>995.7810913884502</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>637.5153927816998</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>637.5153927816998</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>226.5294879920922</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>212.6060839306832</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y2" t="n">
-        <v>1364.743608328862</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
         <v>814.0449459359563</v>
@@ -4398,52 +4398,52 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>625.3202087220412</v>
+        <v>455.5174175241617</v>
       </c>
       <c r="V4" t="n">
-        <v>625.3202087220412</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3202087220412</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1073.534970481816</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332392</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988821</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718707</v>
+        <v>2035.589960916692</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457627</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.534970481816</v>
+        <v>1595.875667274026</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.515311311824</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.515311311824</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.249612705074</v>
+        <v>764.6872557005397</v>
       </c>
       <c r="E8" t="n">
-        <v>1134.461360106829</v>
+        <v>764.6872557005397</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>757.7417549513362</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,25 +4826,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y8" t="n">
         <v>1878.515311311824</v>
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5048,19 +5048,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>716.8555221680797</v>
+        <v>879.2482765610113</v>
       </c>
       <c r="C13" t="n">
-        <v>653.671363330978</v>
+        <v>710.3120936331044</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186423</v>
+        <v>560.1954542207686</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362491</v>
+        <v>412.2823606383755</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983194</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="X13" t="n">
-        <v>898.5039869983194</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.5039869983194</v>
+        <v>879.2482765610113</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977053</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201014</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201014</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5443,43 +5443,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1429.916689169212</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1206.131273958718</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609663</v>
+        <v>917.0026351722763</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550795</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181188</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201014</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201014</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,31 +5498,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.1496160432033</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C19" t="n">
-        <v>631.2134331152964</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>481.0967937029607</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.78763177146</v>
+        <v>731.0291971045605</v>
       </c>
       <c r="X19" t="n">
-        <v>981.798080873443</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y19" t="n">
-        <v>981.798080873443</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.8683222506741</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5947,13 +5947,13 @@
         <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>954.8146123150544</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>726.8250614170371</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.032482273507</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>357.5203921878135</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C25" t="n">
-        <v>188.5842092599066</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D25" t="n">
-        <v>188.5842092599066</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E25" t="n">
-        <v>188.5842092599066</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>188.5842092599066</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909233</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227915</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227915</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858309</v>
+        <v>1089.480514230906</v>
       </c>
       <c r="X25" t="n">
-        <v>357.5203921878135</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y25" t="n">
-        <v>357.5203921878135</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,19 +6300,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>861.490963332889</v>
       </c>
       <c r="C28" t="n">
-        <v>245.1301850426789</v>
+        <v>692.5547804049821</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426789</v>
+        <v>542.4381409926464</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>394.5250474102533</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1461.510857287049</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1461.510857287049</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T28" t="n">
-        <v>1237.725442076555</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="U28" t="n">
-        <v>948.5968032901133</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="V28" t="n">
-        <v>693.9123150842264</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="W28" t="n">
-        <v>693.9123150842264</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="X28" t="n">
-        <v>465.9227641862091</v>
+        <v>1263.932007306659</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>1043.139428163129</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,49 +6446,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6537,19 +6537,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215239</v>
+        <v>750.8748194215243</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749879</v>
+        <v>637.6995017749883</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440231</v>
+        <v>543.3437276440235</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430009</v>
+        <v>451.1914993430012</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252999</v>
+        <v>1757.075756152471</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323876</v>
+        <v>1589.051206223347</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818805</v>
+        <v>1355.683432718276</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894289</v>
+        <v>1156.75980979376</v>
       </c>
       <c r="W31" t="n">
-        <v>1041.794132832552</v>
+        <v>923.1035050381707</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832552</v>
+        <v>750.8748194215243</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703926</v>
+        <v>750.8748194215243</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,40 +6683,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7072,34 +7072,34 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010319</v>
@@ -7154,49 +7154,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254962</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010319</v>
@@ -7391,25 +7391,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504511</v>
@@ -7561,58 +7561,58 @@
         <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>52.4973336130526</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928347</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>104.6945038498972</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>177.8736900303412</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.08849621799493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>129.6112244087998</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>81.80045425723496</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>91.74843472833925</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.13946175933273</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>77.92698102445263</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>76.04012184175303</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>167.4189519714415</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>72.93299326564838</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>214.6227958286961</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523554</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>20.21884529571389</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>82.96147103691388</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
         <v>273720.3418163964</v>
@@ -26326,34 +26326,34 @@
         <v>273720.3418163963</v>
       </c>
       <c r="G2" t="n">
+        <v>273720.3418163963</v>
+      </c>
+      <c r="H2" t="n">
+        <v>273720.3418163963</v>
+      </c>
+      <c r="I2" t="n">
+        <v>273720.3418163963</v>
+      </c>
+      <c r="J2" t="n">
         <v>273720.3418163964</v>
       </c>
-      <c r="H2" t="n">
-        <v>273720.3418163964</v>
-      </c>
-      <c r="I2" t="n">
-        <v>273720.3418163962</v>
-      </c>
-      <c r="J2" t="n">
-        <v>273720.3418163963</v>
-      </c>
       <c r="K2" t="n">
-        <v>284775.4961416893</v>
+        <v>284775.4961416891</v>
       </c>
       <c r="L2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524989</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008667</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.7316560075</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007503</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.3541702041</v>
+        <v>26081.35417020406</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732799</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732801</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732797</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732799</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-533379.3865413755</v>
       </c>
       <c r="C6" t="n">
-        <v>56588.49267316895</v>
+        <v>56588.49267316901</v>
       </c>
       <c r="D6" t="n">
-        <v>56588.49267316921</v>
+        <v>56588.49267316906</v>
       </c>
       <c r="E6" t="n">
-        <v>-351343.7522652239</v>
+        <v>-351441.2113911961</v>
       </c>
       <c r="F6" t="n">
-        <v>173816.2842116721</v>
+        <v>173718.8250857</v>
       </c>
       <c r="G6" t="n">
-        <v>173816.2842116723</v>
+        <v>173718.8250857</v>
       </c>
       <c r="H6" t="n">
-        <v>173816.2842116723</v>
+        <v>173718.8250857</v>
       </c>
       <c r="I6" t="n">
-        <v>173816.2842116721</v>
+        <v>173718.8250856998</v>
       </c>
       <c r="J6" t="n">
-        <v>-2606.934980920676</v>
+        <v>-2704.394106892491</v>
       </c>
       <c r="K6" t="n">
-        <v>117903.3281384166</v>
+        <v>117884.8344004822</v>
       </c>
       <c r="L6" t="n">
-        <v>148971.0879342792</v>
+        <v>148971.0879342789</v>
       </c>
       <c r="M6" t="n">
-        <v>24512.97950130848</v>
+        <v>24512.97950130874</v>
       </c>
       <c r="N6" t="n">
-        <v>159313.9947351458</v>
+        <v>159313.994735146</v>
       </c>
       <c r="O6" t="n">
         <v>159313.9947351458</v>
       </c>
       <c r="P6" t="n">
-        <v>115151.3894323001</v>
+        <v>115151.3894322997</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26753,28 +26753,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108338</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>243.8569750924748</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>166.8463016751416</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>110.3648512204699</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>16.39642322652765</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>283.1513966242214</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>320.6518886282833</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.42155842600509</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>19.83197231642231</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>74.86979402326352</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>192.8774736303513</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.50172456543</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855725</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,43 +31045,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33099,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,43 +33336,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>385.6919070110654</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221136</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412277</v>
+        <v>67.71102679412267</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,13 +37950,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
